--- a/7rmatsupermarket/src/test/resources/TestData.xlsx
+++ b/7rmatsupermarket/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\eclipse-workspace\7rmatsupermarket\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\7rmartapp\7rmatsupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E01D6E-D25D-4B72-9D2A-A5522A9D0722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB19E0-6516-4912-AC72-E01BA6B99DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{5AAF5BFB-7DF1-4E84-913E-D35F4FD1DCB0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AAF5BFB-7DF1-4E84-913E-D35F4FD1DCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>manavi</t>
+  </si>
+  <si>
+    <t>qwert</t>
   </si>
 </sst>
 </file>
@@ -452,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD06D483-CC64-40DF-AB28-DA7E706669E9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2408F5-5292-4DBF-A083-4095557E4CC0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
